--- a/output.xlsx
+++ b/output.xlsx
@@ -97,7 +97,7 @@
     <t>Calin</t>
   </si>
   <si>
-    <t>labor</t>
+    <t>laber</t>
   </si>
   <si>
     <t>Ciprian</t>
